--- a/Excel/TestData.xlsx
+++ b/Excel/TestData.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA83B2F6-0841-4D08-9053-FFD78A379D10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14269E95-C354-4B30-865A-CEC3873915A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Test Connection</t>
   </si>
@@ -47,13 +48,43 @@
   </si>
   <si>
     <t>T1</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>Uname</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>TC_ABC_01</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>test345</t>
+  </si>
+  <si>
+    <t>test678</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +92,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,8 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -410,4 +459,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D560B114-536C-464E-9BD3-0F8BDC9660FB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/TestData.xlsx
+++ b/Excel/TestData.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14269E95-C354-4B30-865A-CEC3873915A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1401FF85-0619-4DAF-8D8A-4C4CA8E6598E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Test Connection</t>
   </si>
@@ -78,6 +79,99 @@
   </si>
   <si>
     <t>test678</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>UN10</t>
+  </si>
+  <si>
+    <t>PW10</t>
+  </si>
+  <si>
+    <t>UN11</t>
+  </si>
+  <si>
+    <t>PW11</t>
+  </si>
+  <si>
+    <t>UN12</t>
+  </si>
+  <si>
+    <t>PW12</t>
+  </si>
+  <si>
+    <t>UN13</t>
+  </si>
+  <si>
+    <t>PW13</t>
+  </si>
+  <si>
+    <t>UN14</t>
+  </si>
+  <si>
+    <t>PW14</t>
+  </si>
+  <si>
+    <t>UN15</t>
+  </si>
+  <si>
+    <t>PW15</t>
+  </si>
+  <si>
+    <t>UN01</t>
+  </si>
+  <si>
+    <t>PW01</t>
+  </si>
+  <si>
+    <t>UN02</t>
+  </si>
+  <si>
+    <t>PW02</t>
+  </si>
+  <si>
+    <t>UN03</t>
+  </si>
+  <si>
+    <t>PW03</t>
+  </si>
+  <si>
+    <t>UN04</t>
+  </si>
+  <si>
+    <t>PW04</t>
+  </si>
+  <si>
+    <t>UN05</t>
+  </si>
+  <si>
+    <t>PW05</t>
+  </si>
+  <si>
+    <t>UN06</t>
+  </si>
+  <si>
+    <t>PW06</t>
+  </si>
+  <si>
+    <t>UN07</t>
+  </si>
+  <si>
+    <t>PW07</t>
+  </si>
+  <si>
+    <t>UN08</t>
+  </si>
+  <si>
+    <t>PW08</t>
+  </si>
+  <si>
+    <t>UN09</t>
+  </si>
+  <si>
+    <t>PW09</t>
   </si>
 </sst>
 </file>
@@ -127,12 +221,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D560B114-536C-464E-9BD3-0F8BDC9660FB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -515,4 +610,149 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2303C74-AF84-4AD4-9AED-EB0FAC926126}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/TestData.xlsx
+++ b/Excel/TestData.xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1401FF85-0619-4DAF-8D8A-4C4CA8E6598E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C921F4B3-2AD5-4D32-AFF7-E1F095FF2524}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="MyTestData" sheetId="2" r:id="rId2"/>
+    <sheet name="MyTestData1" sheetId="4" r:id="rId3"/>
+    <sheet name="TD01" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="78">
   <si>
     <t>Test Connection</t>
   </si>
@@ -75,9 +77,6 @@
     <t>DEF</t>
   </si>
   <si>
-    <t>test345</t>
-  </si>
-  <si>
     <t>test678</t>
   </si>
   <si>
@@ -172,12 +171,100 @@
   </si>
   <si>
     <t>PW09</t>
+  </si>
+  <si>
+    <t>TC_ABC_02</t>
+  </si>
+  <si>
+    <t>TC_ABC_03</t>
+  </si>
+  <si>
+    <t>TC_ABC_04</t>
+  </si>
+  <si>
+    <t>TC_ABC_05</t>
+  </si>
+  <si>
+    <t>TC_ABC_06</t>
+  </si>
+  <si>
+    <t>TC_ABC_07</t>
+  </si>
+  <si>
+    <t>TC_ABC_08</t>
+  </si>
+  <si>
+    <t>TC_ABC_09</t>
+  </si>
+  <si>
+    <t>TC_ABC_10</t>
+  </si>
+  <si>
+    <t>test679</t>
+  </si>
+  <si>
+    <t>test680</t>
+  </si>
+  <si>
+    <t>test681</t>
+  </si>
+  <si>
+    <t>test682</t>
+  </si>
+  <si>
+    <t>test683</t>
+  </si>
+  <si>
+    <t>test684</t>
+  </si>
+  <si>
+    <t>test685</t>
+  </si>
+  <si>
+    <t>test687</t>
+  </si>
+  <si>
+    <t>test348</t>
+  </si>
+  <si>
+    <t>test350</t>
+  </si>
+  <si>
+    <t>test351</t>
+  </si>
+  <si>
+    <t>test352</t>
+  </si>
+  <si>
+    <t>test353</t>
+  </si>
+  <si>
+    <t>This is to put data</t>
+  </si>
+  <si>
+    <t>This is put data</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Data3</t>
+  </si>
+  <si>
+    <t>uqiwf</t>
+  </si>
+  <si>
+    <t>hdiuwq</t>
+  </si>
+  <si>
+    <t>uasdiu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,18 +282,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -223,11 +304,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,8 +597,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -558,34 +641,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D560B114-536C-464E-9BD3-0F8BDC9660FB}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -593,17 +674,170 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -613,142 +847,391 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A7033-0382-4922-A120-D88BCA5ECD19}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37980D7A-FFCB-4A4F-B876-0F47FEFB5291}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2303C74-AF84-4AD4-9AED-EB0FAC926126}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TestData.xlsx
+++ b/Excel/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C921F4B3-2AD5-4D32-AFF7-E1F095FF2524}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3353D8CE-F9DA-4B83-946F-3E04AE9A104C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="MyTestData1" sheetId="4" r:id="rId3"/>
     <sheet name="TD01" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="TestData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
   <si>
     <t>Test Connection</t>
   </si>
@@ -258,6 +259,21 @@
   </si>
   <si>
     <t>uasdiu</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Nishank</t>
+  </si>
+  <si>
+    <t>Bharil</t>
+  </si>
+  <si>
+    <t>https://testdata/</t>
+  </si>
+  <si>
+    <t>https://abc/</t>
   </si>
 </sst>
 </file>
@@ -265,7 +281,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +293,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,10 +323,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -311,8 +336,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,9 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D560B114-536C-464E-9BD3-0F8BDC9660FB}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -850,9 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A7033-0382-4922-A120-D88BCA5ECD19}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1059,9 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37980D7A-FFCB-4A4F-B876-0F47FEFB5291}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1238,4 +1259,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96252356-278F-4287-8674-94C10BA09A1C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B7EC06BD-37F9-4DFD-AEB7-177FB5FADE47}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>